--- a/Documentatie/1.4 Maakt een technisch ontwerp/normaliseren.xlsx
+++ b/Documentatie/1.4 Maakt een technisch ontwerp/normaliseren.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>tbl_users</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isCanceled </t>
   </si>
 </sst>
 </file>
@@ -496,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +667,9 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
